--- a/ペットボトル計算.xlsx
+++ b/ペットボトル計算.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="21555" windowHeight="13005" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="21555" windowHeight="13005"/>
   </bookViews>
   <sheets>
     <sheet name="大気圧" sheetId="3" r:id="rId1"/>
@@ -1158,7 +1158,496 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ja-JP"/>
   <c:chart>
-    <c:title/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>大気圧!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>大気圧!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-12.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-25.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-32</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-38.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-45</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-50</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-45</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-40</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-60</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-60</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>240</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="103327616"/>
+        <c:axId val="103326080"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>大気圧!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>大気圧!$C$2:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>101.325</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.1494841516363</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.985036239041563</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97.831576355808622</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>96.689024996189602</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>95.557303053974735</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>94.436331821371368</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>93.326032987884133</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>92.226328639195373</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>91.137141256046533</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90.058393713120012</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>79.828421358717705</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>70.560477249593845</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>62.183761551405738</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>54.631169623983659</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>47.839182036256112</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41.747755266929907</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>36.30021310359696</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>31.443138753504588</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>27.126267679829539</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.0712868282388079</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.9391350162468477</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.3406151101988262</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.5601729888549249</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.70672517043859295</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.34251207186367755</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.15321337338780691</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.673370440008683E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.4954595403965157E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.13301019525642235</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="247113600"/>
+        <c:axId val="220632960"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="103327616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="103326080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="103326080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="103327616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="220632960"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="247113600"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="247113600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="220632960"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ja-JP"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1536,23 +2025,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="206985088"/>
-        <c:axId val="206986624"/>
+        <c:axId val="92651904"/>
+        <c:axId val="92653440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="206985088"/>
+        <c:axId val="92651904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206986624"/>
+        <c:crossAx val="92653440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="206986624"/>
+        <c:axId val="92653440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1560,25 +2049,61 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206985088"/>
+        <c:crossAx val="92651904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1900,8 +2425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2246,7 +2771,8 @@
         <v>-25</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <f t="shared" ref="C26:C39" si="2">$E$1*((1-(0.0065*A26*1000)/(B26+0.0065*A26*1000+273.15)))^5.257/10</f>
+        <v>0.70672517043859295</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2257,7 +2783,8 @@
         <v>-40</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.34251207186367755</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2268,7 +2795,8 @@
         <v>-60</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.15321337338780691</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2279,7 +2807,8 @@
         <v>-80</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>6.673370440008683E-2</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2290,7 +2819,8 @@
         <v>-60</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>6.4954595403965157E-2</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2301,7 +2831,8 @@
         <v>240</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.13301019525642235</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2312,7 +2843,8 @@
         <v>540</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.16331292251579918</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2323,7 +2855,8 @@
         <v>840</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.18001681536539277</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2334,7 +2867,8 @@
         <v>1080</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.16237584536151181</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2345,7 +2879,8 @@
         <v>1400</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.18137938118559507</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2356,7 +2891,8 @@
         <v>1700</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.18869956481543343</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2367,7 +2903,8 @@
         <v>2000</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.19431286657463545</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2378,7 +2915,8 @@
         <v>2000</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.12533978711394095</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2389,7 +2927,8 @@
         <v>2000</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>8.3626082959902481E-2</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2593,6 +3132,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2600,8 +3140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A57" sqref="A2:A57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3831,7 +4371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>

--- a/ペットボトル計算.xlsx
+++ b/ペットボトル計算.xlsx
@@ -1364,8 +1364,8 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="103327616"/>
-        <c:axId val="103326080"/>
+        <c:axId val="104063360"/>
+        <c:axId val="104064896"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -1572,23 +1572,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="247113600"/>
-        <c:axId val="220632960"/>
+        <c:axId val="105972864"/>
+        <c:axId val="104066432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="103327616"/>
+        <c:axId val="104063360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103326080"/>
+        <c:crossAx val="104064896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="103326080"/>
+        <c:axId val="104064896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1596,12 +1596,12 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103327616"/>
+        <c:crossAx val="104063360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="220632960"/>
+        <c:axId val="104066432"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1609,12 +1609,12 @@
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="247113600"/>
+        <c:crossAx val="105972864"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="247113600"/>
+        <c:axId val="105972864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1622,7 +1622,8 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="220632960"/>
+        <c:crossAx val="104066432"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
@@ -1635,7 +1636,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1645,9 +1646,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ja-JP"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -2025,23 +2024,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="92651904"/>
-        <c:axId val="92653440"/>
+        <c:axId val="223470336"/>
+        <c:axId val="223471872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="92651904"/>
+        <c:axId val="223470336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92653440"/>
+        <c:crossAx val="223471872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="92653440"/>
+        <c:axId val="223471872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2049,20 +2048,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92651904"/>
+        <c:crossAx val="223470336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2425,7 +2423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
@@ -2473,7 +2471,7 @@
         <v>19.350000000000001</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C24" si="1">$E$1*((1-(0.0065*A3*1000)/(B3+0.0065*A3*1000+273.15)))^5.257/10</f>
+        <f t="shared" ref="C3:C39" si="1">$E$1*((1-(0.0065*A3*1000)/(B3+0.0065*A3*1000+273.15)))^5.257/10</f>
         <v>100.1494841516363</v>
       </c>
     </row>
@@ -2650,7 +2648,7 @@
         <v>54.631169623983659</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>6</v>
       </c>
@@ -2663,7 +2661,7 @@
         <v>47.839182036256112</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>7</v>
       </c>
@@ -2676,7 +2674,7 @@
         <v>41.747755266929907</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>8</v>
       </c>
@@ -2685,11 +2683,11 @@
         <v>-32</v>
       </c>
       <c r="C19">
-        <f t="shared" si="1"/>
+        <f>$E$1*((1-(0.0065*A19*1000)/(B19+0.0065*A19*1000+273.15)))^5.257/10</f>
         <v>36.30021310359696</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>9</v>
       </c>
@@ -2702,7 +2700,7 @@
         <v>31.443138753504588</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>10</v>
       </c>
@@ -2715,7 +2713,7 @@
         <v>27.126267679829539</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2726,8 +2724,11 @@
         <f t="shared" si="1"/>
         <v>9.0712868282388079</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>30</v>
       </c>
@@ -2739,7 +2740,7 @@
         <v>3.9391350162468477</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>40</v>
       </c>
@@ -2751,7 +2752,7 @@
         <v>2.3406151101988262</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>50</v>
       </c>
@@ -2759,11 +2760,11 @@
         <v>-5</v>
       </c>
       <c r="C25">
-        <f>$E$1*((1-(0.0065*A25*1000)/(B25+0.0065*A25*1000+273.15)))^5.257/10</f>
+        <f t="shared" si="1"/>
         <v>1.5601729888549249</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>60</v>
       </c>
@@ -2771,11 +2772,11 @@
         <v>-25</v>
       </c>
       <c r="C26">
-        <f t="shared" ref="C26:C39" si="2">$E$1*((1-(0.0065*A26*1000)/(B26+0.0065*A26*1000+273.15)))^5.257/10</f>
+        <f t="shared" si="1"/>
         <v>0.70672517043859295</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>70</v>
       </c>
@@ -2783,11 +2784,11 @@
         <v>-40</v>
       </c>
       <c r="C27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.34251207186367755</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>80</v>
       </c>
@@ -2795,11 +2796,11 @@
         <v>-60</v>
       </c>
       <c r="C28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.15321337338780691</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>90</v>
       </c>
@@ -2807,11 +2808,11 @@
         <v>-80</v>
       </c>
       <c r="C29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.673370440008683E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>100</v>
       </c>
@@ -2819,11 +2820,11 @@
         <v>-60</v>
       </c>
       <c r="C30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.4954595403965157E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>200</v>
       </c>
@@ -2831,11 +2832,11 @@
         <v>240</v>
       </c>
       <c r="C31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.13301019525642235</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>300</v>
       </c>
@@ -2843,7 +2844,7 @@
         <v>540</v>
       </c>
       <c r="C32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.16331292251579918</v>
       </c>
     </row>
@@ -2855,7 +2856,7 @@
         <v>840</v>
       </c>
       <c r="C33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.18001681536539277</v>
       </c>
     </row>
@@ -2867,7 +2868,7 @@
         <v>1080</v>
       </c>
       <c r="C34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.16237584536151181</v>
       </c>
     </row>
@@ -2879,7 +2880,7 @@
         <v>1400</v>
       </c>
       <c r="C35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.18137938118559507</v>
       </c>
     </row>
@@ -2891,7 +2892,7 @@
         <v>1700</v>
       </c>
       <c r="C36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.18869956481543343</v>
       </c>
     </row>
@@ -2903,7 +2904,7 @@
         <v>2000</v>
       </c>
       <c r="C37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.19431286657463545</v>
       </c>
     </row>
@@ -2915,7 +2916,7 @@
         <v>2000</v>
       </c>
       <c r="C38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.12533978711394095</v>
       </c>
     </row>
@@ -2927,7 +2928,7 @@
         <v>2000</v>
       </c>
       <c r="C39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8.3626082959902481E-2</v>
       </c>
     </row>
